--- a/biology/Botanique/Salix_myrsinifolia/Salix_myrsinifolia.xlsx
+++ b/biology/Botanique/Salix_myrsinifolia/Salix_myrsinifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saule noircissant
 Salix myrsinifolia, le saule noircissant, est un arbrisseau de 1 à 3 mètres de haut de la famille des Salicaceae.
@@ -512,9 +524,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (31 déc. 2016)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (31 déc. 2016) :
 Salix kolaënsis Schljakov
 Salix myrsinites Hoffm. non L.
 Salix nigricans Sm.</t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes rameaux et les bourgeons du saule noircissant sont pubescents.
 Le bois nu et strié en long porte des feuilles pétiolées, ovales ou oblongues-lancéolées, aiguës ou acuminées, ondulées-crénelées, vertes en dessus, glauques-pubescentes et faiblement nervées-réticulées en dessous, noircissant sur le sec.
@@ -579,9 +595,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce saule pousse dans les lieux humides des montagnes : Vosges, Jura, Alpes, Pyrénées-Orientales, Corse.Plus généralement, on le trouve en Europe montagneuse et en Sibérie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce saule pousse dans les lieux humides des montagnes : Vosges, Jura, Alpes, Pyrénées-Orientales, Corse.Plus généralement, on le trouve en Europe montagneuse et en Sibérie.
 </t>
         </is>
       </c>
